--- a/data/tmp/tmp.xlsx
+++ b/data/tmp/tmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>26735</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.8825</v>
+        <v>3.4764</v>
       </c>
       <c r="F2" t="n">
-        <v>26.56</v>
+        <v>27.01</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>26835</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
@@ -509,10 +509,10 @@
         <v>0.417</v>
       </c>
       <c r="E3" t="n">
-        <v>3.9208</v>
+        <v>3.5378</v>
       </c>
       <c r="F3" t="n">
-        <v>26.59</v>
+        <v>27.48</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -522,22 +522,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>200</v>
+        <v>26935</v>
       </c>
       <c r="B4" t="n">
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14.999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.834</v>
+        <v>0.833</v>
       </c>
       <c r="E4" t="n">
-        <v>3.9377</v>
+        <v>3.5589</v>
       </c>
       <c r="F4" t="n">
-        <v>26.84</v>
+        <v>27.01</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>300</v>
+        <v>27035</v>
       </c>
       <c r="B5" t="n">
         <v>300</v>
@@ -559,10 +559,10 @@
         <v>1.25</v>
       </c>
       <c r="E5" t="n">
-        <v>3.9535</v>
+        <v>3.5756</v>
       </c>
       <c r="F5" t="n">
-        <v>26.79</v>
+        <v>26.53</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>400</v>
+        <v>27135</v>
       </c>
       <c r="B6" t="n">
         <v>400</v>
@@ -584,10 +584,10 @@
         <v>1.667</v>
       </c>
       <c r="E6" t="n">
-        <v>3.9683</v>
+        <v>3.5902</v>
       </c>
       <c r="F6" t="n">
-        <v>26.51</v>
+        <v>26.53</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>500</v>
+        <v>27235</v>
       </c>
       <c r="B7" t="n">
         <v>500</v>
@@ -606,13 +606,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>2.084</v>
+        <v>2.083</v>
       </c>
       <c r="E7" t="n">
-        <v>3.983</v>
+        <v>3.6032</v>
       </c>
       <c r="F7" t="n">
-        <v>26.45</v>
+        <v>26.39</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -622,22 +622,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>600</v>
+        <v>27335</v>
       </c>
       <c r="B8" t="n">
         <v>600</v>
       </c>
       <c r="C8" t="n">
-        <v>14.999</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3.9977</v>
+        <v>3.6153</v>
       </c>
       <c r="F8" t="n">
-        <v>27.11</v>
+        <v>26.15</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -647,22 +647,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>700</v>
+        <v>27435</v>
       </c>
       <c r="B9" t="n">
         <v>700</v>
       </c>
       <c r="C9" t="n">
-        <v>14.999</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
         <v>2.917</v>
       </c>
       <c r="E9" t="n">
-        <v>4.012</v>
+        <v>3.6268</v>
       </c>
       <c r="F9" t="n">
-        <v>26.82</v>
+        <v>26.25</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -672,22 +672,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>800</v>
+        <v>27535</v>
       </c>
       <c r="B10" t="n">
         <v>800</v>
       </c>
       <c r="C10" t="n">
-        <v>14.999</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>3.334</v>
+        <v>3.333</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0265</v>
+        <v>3.6373</v>
       </c>
       <c r="F10" t="n">
-        <v>26.93</v>
+        <v>26.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>900</v>
+        <v>27635</v>
       </c>
       <c r="B11" t="n">
         <v>900</v>
@@ -709,10 +709,10 @@
         <v>3.75</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0413</v>
+        <v>3.6465</v>
       </c>
       <c r="F11" t="n">
-        <v>27.23</v>
+        <v>26.33</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -722,22 +722,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1000</v>
+        <v>27735</v>
       </c>
       <c r="B12" t="n">
         <v>1000</v>
       </c>
       <c r="C12" t="n">
-        <v>14.999</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
         <v>4.167</v>
       </c>
       <c r="E12" t="n">
-        <v>4.056</v>
+        <v>3.654</v>
       </c>
       <c r="F12" t="n">
-        <v>27.28</v>
+        <v>26.02</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1100</v>
+        <v>27835</v>
       </c>
       <c r="B13" t="n">
         <v>1100</v>
@@ -759,10 +759,10 @@
         <v>4.583</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0707</v>
+        <v>3.6604</v>
       </c>
       <c r="F13" t="n">
-        <v>27.26</v>
+        <v>25.92</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1200</v>
+        <v>27935</v>
       </c>
       <c r="B14" t="n">
         <v>1200</v>
@@ -784,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>4.0858</v>
+        <v>3.6657</v>
       </c>
       <c r="F14" t="n">
-        <v>26.97</v>
+        <v>26.24</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1300</v>
+        <v>28035</v>
       </c>
       <c r="B15" t="n">
         <v>1300</v>
       </c>
       <c r="C15" t="n">
-        <v>14.999</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
         <v>5.417</v>
       </c>
       <c r="E15" t="n">
-        <v>4.1011</v>
+        <v>3.6708</v>
       </c>
       <c r="F15" t="n">
-        <v>26.62</v>
+        <v>26.24</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1400</v>
+        <v>28135</v>
       </c>
       <c r="B16" t="n">
         <v>1400</v>
@@ -834,10 +834,10 @@
         <v>5.833</v>
       </c>
       <c r="E16" t="n">
-        <v>4.1168</v>
+        <v>3.6751</v>
       </c>
       <c r="F16" t="n">
-        <v>26.5</v>
+        <v>26.19</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1500</v>
+        <v>28235</v>
       </c>
       <c r="B17" t="n">
         <v>1500</v>
@@ -859,10 +859,10 @@
         <v>6.25</v>
       </c>
       <c r="E17" t="n">
-        <v>4.1329</v>
+        <v>3.6793</v>
       </c>
       <c r="F17" t="n">
-        <v>26.69</v>
+        <v>26</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -872,22 +872,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1600</v>
+        <v>28335</v>
       </c>
       <c r="B18" t="n">
         <v>1600</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>14.999</v>
       </c>
       <c r="D18" t="n">
         <v>6.667</v>
       </c>
       <c r="E18" t="n">
-        <v>4.1499</v>
+        <v>3.6835</v>
       </c>
       <c r="F18" t="n">
-        <v>26.77</v>
+        <v>25.89</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1700</v>
+        <v>28435</v>
       </c>
       <c r="B19" t="n">
         <v>1700</v>
@@ -909,10 +909,10 @@
         <v>7.083</v>
       </c>
       <c r="E19" t="n">
-        <v>4.1676</v>
+        <v>3.6875</v>
       </c>
       <c r="F19" t="n">
-        <v>26.56</v>
+        <v>25.86</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -922,26 +922,1526 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1769</v>
+        <v>28535</v>
       </c>
       <c r="B20" t="n">
-        <v>1769</v>
+        <v>1800</v>
       </c>
       <c r="C20" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.6917</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.917</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.6956</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>28735</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.333</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.6998</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28835</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C23" t="n">
         <v>14.999</v>
       </c>
-      <c r="D20" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.7041</v>
+      </c>
+      <c r="F23" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28935</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.167</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.7083</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29035</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.713</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29135</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.7178</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29235</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.417</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.7227</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29335</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.833</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.728</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29435</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.7337</v>
+      </c>
+      <c r="F29" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29535</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11.667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.7396</v>
+      </c>
+      <c r="F30" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29635</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.083</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.7461</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29735</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.7528</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29835</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.917</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.7598</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>29935</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>13.333</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.7671</v>
+      </c>
+      <c r="F34" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30035</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3300</v>
+      </c>
+      <c r="C35" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.7746</v>
+      </c>
+      <c r="F35" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>30135</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3400</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14.167</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.7822</v>
+      </c>
+      <c r="F36" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>30235</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.583</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.7901</v>
+      </c>
+      <c r="F37" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>30335</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.7984</v>
+      </c>
+      <c r="F38" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>30435</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3700</v>
+      </c>
+      <c r="C39" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15.417</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.807</v>
+      </c>
+      <c r="F39" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>30535</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3800</v>
+      </c>
+      <c r="C40" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15.833</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="F40" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>30635</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.8258</v>
+      </c>
+      <c r="F41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>30735</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>16.666</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.8359</v>
+      </c>
+      <c r="F42" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>30835</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4100</v>
+      </c>
+      <c r="C43" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>17.083</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.8464</v>
+      </c>
+      <c r="F43" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>30935</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4200</v>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.8574</v>
+      </c>
+      <c r="F44" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31035</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15</v>
+      </c>
+      <c r="D45" t="n">
+        <v>17.916</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.8695</v>
+      </c>
+      <c r="F45" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31135</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4400</v>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18.333</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.8816</v>
+      </c>
+      <c r="F46" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31235</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C47" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.8943</v>
+      </c>
+      <c r="F47" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31335</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4600</v>
+      </c>
+      <c r="C48" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19.166</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.9075</v>
+      </c>
+      <c r="F48" t="n">
+        <v>26</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31435</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4700</v>
+      </c>
+      <c r="C49" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19.583</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.9208</v>
+      </c>
+      <c r="F49" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31535</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C50" t="n">
+        <v>15</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.9345</v>
+      </c>
+      <c r="F50" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31635</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20.416</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.9484</v>
+      </c>
+      <c r="F51" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31735</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20.833</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.9624</v>
+      </c>
+      <c r="F52" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31835</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5100</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15</v>
+      </c>
+      <c r="D53" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.9766</v>
+      </c>
+      <c r="F53" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31935</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5200</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>21.666</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.9909</v>
+      </c>
+      <c r="F54" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32035</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="n">
+        <v>22.083</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.0055</v>
+      </c>
+      <c r="F55" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32135</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.0202</v>
+      </c>
+      <c r="F56" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32235</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>22.916</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.0352</v>
+      </c>
+      <c r="F57" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32335</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5600</v>
+      </c>
+      <c r="C58" t="n">
+        <v>15</v>
+      </c>
+      <c r="D58" t="n">
+        <v>23.333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.0504</v>
+      </c>
+      <c r="F58" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32435</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5700</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15</v>
+      </c>
+      <c r="D59" t="n">
+        <v>23.749</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.0659</v>
+      </c>
+      <c r="F59" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32535</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5800</v>
+      </c>
+      <c r="C60" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>24.166</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.0814</v>
+      </c>
+      <c r="F60" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32635</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5900</v>
+      </c>
+      <c r="C61" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D61" t="n">
+        <v>24.583</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.0972</v>
+      </c>
+      <c r="F61" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32735</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C62" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D62" t="n">
+        <v>24.999</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.1135</v>
+      </c>
+      <c r="F62" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32835</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C63" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>25.416</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.1302</v>
+      </c>
+      <c r="F63" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32935</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C64" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>25.833</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.1479</v>
+      </c>
+      <c r="F64" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33035</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6300</v>
+      </c>
+      <c r="C65" t="n">
+        <v>15</v>
+      </c>
+      <c r="D65" t="n">
+        <v>26.249</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.1664</v>
+      </c>
+      <c r="F65" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33107</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6372</v>
+      </c>
+      <c r="C66" t="n">
+        <v>14.999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>26.549</v>
+      </c>
+      <c r="E66" t="n">
         <v>4.1803</v>
       </c>
-      <c r="F20" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>CCC</t>
+      <c r="F66" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33107</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6372</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14.943</v>
+      </c>
+      <c r="D67" t="n">
+        <v>26.549</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F67" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33207</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6472</v>
+      </c>
+      <c r="C68" t="n">
+        <v>10.864</v>
+      </c>
+      <c r="D68" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F68" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33307</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6572</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.581</v>
+      </c>
+      <c r="D69" t="n">
+        <v>27.168</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F69" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33407</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6672</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D70" t="n">
+        <v>27.382</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F70" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33507</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6772</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.669</v>
+      </c>
+      <c r="D71" t="n">
+        <v>27.557</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F71" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33607</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6872</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.715</v>
+      </c>
+      <c r="D72" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F72" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33707</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6972</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="D73" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F73" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33807</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7072</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.332</v>
+      </c>
+      <c r="D74" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F74" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33907</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7172</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.837</v>
+      </c>
+      <c r="D75" t="n">
+        <v>28.006</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F75" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34007</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7272</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="D76" t="n">
+        <v>28.079</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F76" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34107</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7372</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.129</v>
+      </c>
+      <c r="D77" t="n">
+        <v>28.143</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F77" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34207</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7472</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="D78" t="n">
+        <v>28.198</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F78" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34307</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7572</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.651</v>
+      </c>
+      <c r="D79" t="n">
+        <v>28.247</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F79" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34371</v>
+      </c>
+      <c r="B80" t="n">
+        <v>7636</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="D80" t="n">
+        <v>28.275</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.1805</v>
+      </c>
+      <c r="F80" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CVC</t>
         </is>
       </c>
     </row>
